--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5a</t>
   </si>
   <si>
@@ -88,13 +91,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H2">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.3478256156657</v>
+        <v>58.08855766666665</v>
       </c>
       <c r="N2">
-        <v>27.3478256156657</v>
+        <v>174.265673</v>
       </c>
       <c r="O2">
-        <v>0.4473841688739787</v>
+        <v>0.6238997925964107</v>
       </c>
       <c r="P2">
-        <v>0.4473841688739787</v>
+        <v>0.6238997925964108</v>
       </c>
       <c r="Q2">
-        <v>204.0868350415245</v>
+        <v>436.5236027106782</v>
       </c>
       <c r="R2">
-        <v>204.0868350415245</v>
+        <v>3928.712424396104</v>
       </c>
       <c r="S2">
-        <v>0.4473841688739787</v>
+        <v>0.6190005898350381</v>
       </c>
       <c r="T2">
-        <v>0.4473841688739787</v>
+        <v>0.6190005898350383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H3">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.46056548360787</v>
+        <v>1.483333666666667</v>
       </c>
       <c r="N3">
-        <v>1.46056548360787</v>
+        <v>4.450001</v>
       </c>
       <c r="O3">
-        <v>0.02389344894007296</v>
+        <v>0.01593173602786259</v>
       </c>
       <c r="P3">
-        <v>0.02389344894007296</v>
+        <v>0.01593173602786259</v>
       </c>
       <c r="Q3">
-        <v>10.89966680018879</v>
+        <v>11.14694842159833</v>
       </c>
       <c r="R3">
-        <v>10.89966680018879</v>
+        <v>100.322535794385</v>
       </c>
       <c r="S3">
-        <v>0.02389344894007296</v>
+        <v>0.01580663131382455</v>
       </c>
       <c r="T3">
-        <v>0.02389344894007296</v>
+        <v>0.01580663131382456</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H4">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.607261422118607</v>
+        <v>0.2805873333333333</v>
       </c>
       <c r="N4">
-        <v>0.607261422118607</v>
+        <v>0.8417619999999999</v>
       </c>
       <c r="O4">
-        <v>0.009934213799730278</v>
+        <v>0.003013646509806552</v>
       </c>
       <c r="P4">
-        <v>0.009934213799730278</v>
+        <v>0.003013646509806553</v>
       </c>
       <c r="Q4">
-        <v>4.531770219128807</v>
+        <v>2.108556289596666</v>
       </c>
       <c r="R4">
-        <v>4.531770219128807</v>
+        <v>18.97700660637</v>
       </c>
       <c r="S4">
-        <v>0.009934213799730278</v>
+        <v>0.002989981707417051</v>
       </c>
       <c r="T4">
-        <v>0.009934213799730278</v>
+        <v>0.002989981707417052</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H5">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.80688820213063</v>
+        <v>0.6279396666666667</v>
       </c>
       <c r="N5">
-        <v>1.80688820213063</v>
+        <v>1.883819</v>
       </c>
       <c r="O5">
-        <v>0.02955895609102275</v>
+        <v>0.006744382087166289</v>
       </c>
       <c r="P5">
-        <v>0.02955895609102275</v>
+        <v>0.006744382087166291</v>
       </c>
       <c r="Q5">
-        <v>13.48414677017218</v>
+        <v>4.718837867368333</v>
       </c>
       <c r="R5">
-        <v>13.48414677017218</v>
+        <v>42.469540806315</v>
       </c>
       <c r="S5">
-        <v>0.02955895609102275</v>
+        <v>0.006691421506417113</v>
       </c>
       <c r="T5">
-        <v>0.02955895609102275</v>
+        <v>0.006691421506417114</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,495 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>7.514794999999999</v>
+      </c>
+      <c r="H6">
+        <v>22.544385</v>
+      </c>
+      <c r="I6">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="J6">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.844971</v>
+      </c>
+      <c r="N6">
+        <v>5.534913</v>
+      </c>
+      <c r="O6">
+        <v>0.01981589955894055</v>
+      </c>
+      <c r="P6">
+        <v>0.01981589955894055</v>
+      </c>
+      <c r="Q6">
+        <v>13.864578845945</v>
+      </c>
+      <c r="R6">
+        <v>124.781209613505</v>
+      </c>
+      <c r="S6">
+        <v>0.01966029426624727</v>
+      </c>
+      <c r="T6">
+        <v>0.01966029426624727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7.514794999999999</v>
+      </c>
+      <c r="H7">
+        <v>22.544385</v>
+      </c>
+      <c r="I7">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="J7">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>30.78019966666666</v>
+      </c>
+      <c r="N7">
+        <v>92.340599</v>
+      </c>
+      <c r="O7">
+        <v>0.3305945432198132</v>
+      </c>
+      <c r="P7">
+        <v>0.3305945432198133</v>
+      </c>
+      <c r="Q7">
+        <v>231.3068905540683</v>
+      </c>
+      <c r="R7">
+        <v>2081.762014986615</v>
+      </c>
+      <c r="S7">
+        <v>0.3279985338634118</v>
+      </c>
+      <c r="T7">
+        <v>0.3279985338634119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.178432</v>
+      </c>
+      <c r="I8">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J8">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>58.08855766666665</v>
+      </c>
+      <c r="N8">
+        <v>174.265673</v>
+      </c>
+      <c r="O8">
+        <v>0.6238997925964107</v>
+      </c>
+      <c r="P8">
+        <v>0.6238997925964108</v>
+      </c>
+      <c r="Q8">
+        <v>3.454952507192888</v>
+      </c>
+      <c r="R8">
+        <v>31.09457256473599</v>
+      </c>
+      <c r="S8">
+        <v>0.004899202761372534</v>
+      </c>
+      <c r="T8">
+        <v>0.004899202761372535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.178432</v>
+      </c>
+      <c r="I9">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J9">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.483333666666667</v>
+      </c>
+      <c r="N9">
+        <v>4.450001</v>
+      </c>
+      <c r="O9">
+        <v>0.01593173602786259</v>
+      </c>
+      <c r="P9">
+        <v>0.01593173602786259</v>
+      </c>
+      <c r="Q9">
+        <v>0.0882247309368889</v>
+      </c>
+      <c r="R9">
+        <v>0.7940225784320001</v>
+      </c>
+      <c r="S9">
+        <v>0.000125104714038034</v>
+      </c>
+      <c r="T9">
+        <v>0.000125104714038034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.178432</v>
+      </c>
+      <c r="I10">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J10">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2805873333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.8417619999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.003013646509806552</v>
+      </c>
+      <c r="P10">
+        <v>0.003013646509806553</v>
+      </c>
+      <c r="Q10">
+        <v>0.01668858635377778</v>
+      </c>
+      <c r="R10">
+        <v>0.150197277184</v>
+      </c>
+      <c r="S10">
+        <v>2.366480238950139E-05</v>
+      </c>
+      <c r="T10">
+        <v>2.36648023895014E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>7.46263479626026</v>
-      </c>
-      <c r="H6">
-        <v>7.46263479626026</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>29.9057412281999</v>
-      </c>
-      <c r="N6">
-        <v>29.9057412281999</v>
-      </c>
-      <c r="O6">
-        <v>0.4892292122951953</v>
-      </c>
-      <c r="P6">
-        <v>0.4892292122951953</v>
-      </c>
-      <c r="Q6">
-        <v>223.1756250975196</v>
-      </c>
-      <c r="R6">
-        <v>223.1756250975196</v>
-      </c>
-      <c r="S6">
-        <v>0.4892292122951953</v>
-      </c>
-      <c r="T6">
-        <v>0.4892292122951953</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.178432</v>
+      </c>
+      <c r="I11">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J11">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6279396666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.883819</v>
+      </c>
+      <c r="O11">
+        <v>0.006744382087166289</v>
+      </c>
+      <c r="P11">
+        <v>0.006744382087166291</v>
+      </c>
+      <c r="Q11">
+        <v>0.03734817686755556</v>
+      </c>
+      <c r="R11">
+        <v>0.336133591808</v>
+      </c>
+      <c r="S11">
+        <v>5.296058074917627E-05</v>
+      </c>
+      <c r="T11">
+        <v>5.29605807491763E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.178432</v>
+      </c>
+      <c r="I12">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J12">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.844971</v>
+      </c>
+      <c r="N12">
+        <v>5.534913</v>
+      </c>
+      <c r="O12">
+        <v>0.01981589955894055</v>
+      </c>
+      <c r="P12">
+        <v>0.01981589955894055</v>
+      </c>
+      <c r="Q12">
+        <v>0.1097339551573333</v>
+      </c>
+      <c r="R12">
+        <v>0.9876055964160001</v>
+      </c>
+      <c r="S12">
+        <v>0.0001556052926932818</v>
+      </c>
+      <c r="T12">
+        <v>0.0001556052926932819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.178432</v>
+      </c>
+      <c r="I13">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J13">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>30.78019966666666</v>
+      </c>
+      <c r="N13">
+        <v>92.340599</v>
+      </c>
+      <c r="O13">
+        <v>0.3305945432198132</v>
+      </c>
+      <c r="P13">
+        <v>0.3305945432198133</v>
+      </c>
+      <c r="Q13">
+        <v>1.830724195640889</v>
+      </c>
+      <c r="R13">
+        <v>16.476517760768</v>
+      </c>
+      <c r="S13">
+        <v>0.002596009356401441</v>
+      </c>
+      <c r="T13">
+        <v>0.002596009356401442</v>
       </c>
     </row>
   </sheetData>
